--- a/Dataset/consultation_req.xlsx
+++ b/Dataset/consultation_req.xlsx
@@ -48,13 +48,13 @@
     <t>lop 8: toan, tieng anh, khtn</t>
   </si>
   <si>
+    <t>lop 11: tieng anh, van, khtn</t>
+  </si>
+  <si>
+    <t>lop 2: khxh, toan, van</t>
+  </si>
+  <si>
     <t>luyen thi dai hoc: khxh, tieng anh va on luyen tin hoc</t>
-  </si>
-  <si>
-    <t>lop 11: tieng anh, van, khtn</t>
-  </si>
-  <si>
-    <t>lop 2: khxh, toan, van</t>
   </si>
 </sst>
 </file>
@@ -446,7 +446,7 @@
   <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:C1048576"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
@@ -518,7 +518,7 @@
         <v>5</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D4" s="4">
         <v>4</v>
@@ -535,7 +535,7 @@
         <v>5</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D5" s="4">
         <v>5</v>
@@ -552,7 +552,7 @@
         <v>6</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D6" s="4">
         <v>6</v>
